--- a/sheet.XLSX
+++ b/sheet.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>jb</t>
   </si>
@@ -28,6 +28,30 @@
   </si>
   <si>
     <t>sadasfd</t>
+  </si>
+  <si>
+    <t>sdsdfsdfsdfs</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>sdg</t>
+  </si>
+  <si>
+    <t>sdgsdgsd</t>
+  </si>
+  <si>
+    <t>gsd</t>
+  </si>
+  <si>
+    <t>gsdg</t>
+  </si>
+  <si>
+    <t>gsdgf</t>
   </si>
 </sst>
 </file>
@@ -366,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +420,57 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
